--- a/500all/speech_level/speeches_CHRG-114hhrg22979.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22979.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,90 +52,57 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Abdullah</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Abdullah. Thank you very much.    The Chairman. Okay, thank you. Dr. Anthony Jenkins, President of West Virginia State University.    Dr. Larry Robinson, interim President for Florida A&amp;M University. Dr. Robinson, glad you are here.    Dr. Kirk Pomper, Director of Land-Grant Programs in Kentucky State University.    Dr. Albert Essel, Director of Cooperative Research and 1890 Administrator, Lincoln University. Good morning, sir.    Zachary Faison, General Counsel and Vice President for External Affairs, Tuskegee University. Zachary, good morning.    Dr. Antoine Alston, Associate Dean for the College of Agriculture and Environmental Sciences, North Carolina A&amp;T.    And finally, Mr. Tony Wells, previous President of the Alumni Association for Tennessee State University. Tony, good to have you with us this morning.    If there are others in the audience who we haven't mentioned, please know you are welcome. We are glad you are here. We value your contribution.</t>
   </si>
   <si>
     <t>400316</t>
   </si>
   <si>
-    <t>Collin C. Peterson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Peterson. Thank you, Mr. Chairman. And welcome, everybody, to today's Agriculture Committee hearing.    As the Chairman said, today's hearing is focused on recruitment challenges and scholarship opportunities at 1890 land-grant universities. We are also going to be learning more about legislation sponsored by Congressman David Scott, H.R. 6020, to make more scholarships available to students attending these schools. Our land-grant universities play an important role in agricultural research, extension, and educational programs, and I am looking forward to hearing today's testimony.    I want to welcome the 1890 Presidents who are joining us today and some of whom were here last summer when we met to recognize the 125th anniversary of the Second Morrill Act.    Before I yield back, Mr. Chairman, this is our final hearing of this Congress, hopefully.    The Chairman. Yes.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Peterson. And I believe that we have held more than 80 hearings, which is a record. As we wrap up here, I want to just thank all the Members for their hard work and the Chairman for his leadership and service to the Committee. And, with that, I yield back.    The Chairman. Well, I thank the Ranking Member for those kind comments at the end. We have had a great 114th Congress and most of us are looking forward to a great 115th Congress. We may have a few folks that move on to committees of lesser importance throughout the Congress as we move forward, but it has been a great pleasure.    So, with that, the chair will request other Members submit their opening statements for the record, so the witnesses may begin their testimony and to assure there is ample time for questions.    I would like to welcome our first panel, the Honorable David Scott, Member of Congress from Georgia, Member of the Committee; the Honorable Emanuel Cleaver, Member of Congress from Missouri; and the Honorable Kevin Cramer, the only Member of Congress from North Dakota.    Congressman Scott, begin when you are ready, sir.    Mr. David Scott of Georgia. Well, thank you very much, Mr. Chairman. First of all, I want to thank you, Chairman Conaway, for your dedication and for your understanding, and for your longtime support of the 1890s African American colleges and universities. Thank you so much for this hearing.    I also want to thank Speaker Paul Ryan, who was very helpful to us in getting this moving.    And I certainly want to thank our Ranking Member Peterson for the great job he has done over the years. He has been a champion of the 1890s.    I want to thank my cosponsors too, if I may, Mr. Chairman. Representative Kevin Cramer, my dear good friend. We have been on this journey now for a couple of years in getting this bill moving and our bill to provide training and job training for African American young men as we move to rebuild the crumbling infrastructure. I want to thank Ms. Marcia L. Fudge, our former Chairwoman of the Congressional Black Caucus, who has been a stalwart supporter of our African American schools; Brad Ashford from Nebraska, who is a great sponsor; Mrs. Mia Love, another one of our Republican cosponsors; Ms. Gwen Graham; Ms. Alma S. Adams; Mr. Pete Sessions, who is the Chairman of our Rules Committee; and my good friend Reverend Emanuel Cleaver, who is an extraordinary champion. Thank you all for this. We appreciate it.    Thank you for your staff work on this, Mr. Chairman, your staff, and my hardworking staff of Ashley and the team back in my office.    This is a monumental moment in the history of our African American colleges and universities, ladies and gentlemen. We humbly come before this Committee to plead our case that we establish the grants in this bill that will enable the African American land-grant universities to be able to provide $1 million each year for scholarships for our African American students. The caveat is that the African American students will then commit to careers in this burgeoning field of business agriculture. The most important industry in the world is agriculture. It is the food we eat. It is the clothes we wear. It is our energy. It is high finance. It is derivatives. It is risk management. It is commodities and futures trading abroad, which makes just the derivatives sector a $800 trillion piece of the world's economy. And we want this opportunity for our students.    I want to say one other thing. There was a great conversation that was held by two great Americans. One, President Abraham Lincoln; the other, General Robert E. Lee. The Civil War had ended. And they had this conversation right on these hallowed grounds. And as they looked over the expanse and looked south to Virginia, Mr. Lincoln said to General Lee, ``It is not incumbent for us to complete this task,'' and before he could finish that, General Lee finished that sentence by saying, ``But, Mr. President Lincoln, neither are we free to desist from doing all we possibly can.''    That is what is at our place today. And, Mr. Chairman, I want us to have this opportunity. There is no greater need in the African American community, as in all communities, than economics, jobs, financial security, and the education and job training that goes along with them. That is why all of us sponsors have sponsored a companion bill to provide job training targeted for the 18-39, the hardest hit group, to help build the crumbling infrastructure. That sits in another committee, but today this is the education piece.    And, Mr. Chairman, this also gives us an opportunity. I received some notice that President-elect Donald Trump is interested in what we are doing with these two bills. I want us to have an opportunity, give us this opportunity, because in these two bills it is the Secretary of Labor that will be the supervisory agency for the jobs bill, but this bill will come under the new Secretary of Agriculture. It is important that we engage them.    And I take President Trump, and as many of you know or some of you may not know, he and I finished from the great Wharton School of Finance at the University of Pennsylvania together. I ask for an opportunity to allow us to work, and maybe we bring some of that Wharton School of Business magic to this. I appreciate the opportunity to do that and hope you will pass this bill out. Thank you.    [H.R. 6020 and H.R. 6021 follow:] H.R. 6020, Funding for Student Scholarships for the 1890s Land-Grant              African-American Colleges and Universities Act                                          H.R. 6021, Jobs, On-the-Job `Earn While You Learn' Training, and            Apprenticeships for African-American Young Men Act                                                 The Chairman. The gentleman yields back.    Reverend Cleaver.</t>
   </si>
   <si>
-    <t>Cleaver</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cleaver. Thank you, Mr. Chairman and Ranking Member Peterson, for having this hearing. And I would thank my colleague David Scott for the vision that he has. You will hear from my esteemed colleagues, the original sponsors of H.R. 6020, on the importance of this legislation and its benefits.    I will just say that this bill is critical if we are to increase the number of African American young people seeking careers in agriculture and agribusiness. When I look back, I happen to have known both of my great-grandfathers. On the Cleaver side, they tend to live into their nineties. My father just reached 94. I had the chance to know them. And on both sides, they were farmers. Henry Barton and the Reverend Noah Albert Cleaver, my great-grandfathers. And my great-uncle was the head of the agricultural department at Prairie View A&amp;M University.    There is an 1890 university in my state, Lincoln University, and we are very proud of it, as I am proud to be a Prairie View A&amp;M graduate, in fact. When my nephew graduated 2 years ago, he made the 15th Cleaver to graduate from Prairie View. And it is a school that has produced two Members of Congress. Some of you probably served with Craig Washington, who filled the seat that is now held by Sheila Jackson Lee of Houston. And many people know of the Gang of Three in New York, one of them Percy Sutton. You see his name almost always associated with Congressman Charlie Rangel. Percy Sutton is a Prairie View graduate, as is Mr. T. Mr. T was a freshman when I was a senior. And Cecil Cooper who, for the baseball fans, played for the Red Sox. And, of course, Otis Taylor and Ken Houston and Jim Kearney and many others were NFL standouts.    Lincoln University in Jefferson City was established at the end of the Civil War by members of the 62nd United States Colored Infantry. It was created to educate freed African Americans. The school was founded on the idea of combining study and labor. In 1890, Lincoln became a land-grant institution, enabling the university to offer industrial and agricultural courses. As one of Missouri's two historically black colleges and universities, Lincoln University has continued to open its doors to a diverse population.    You may be surprised to learn that my close friend, Blaine Luetkemeyer, is a graduate of an HBCU, Lincoln University. And Prairie View A&amp;M University, the first state-supported college in Texas for African Americans, was established during the reconstruction period after the Civil War. It is the second oldest public institution of higher education in Texas.    Thank you, Mr. Chairman and Ranking Member, and especially to my colleague and friend David Scott.    The Chairman. I thank the gentleman. Do I have it correct that both you and David have degrees from land-grant schools?</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Cleaver. Yes. I am a graduate of Prairie View.    The Chairman. And David?    Mr. David Scott of Georgia. And I am a graduate of Florida A&amp;M University.    The Chairman. All right.    Mr. David Scott of Georgia. Go Rattlers.    The Chairman. Mr. Cramer, can you top that, sir?</t>
   </si>
   <si>
-    <t>Cramer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cramer. No, Mr. Chairman. I am getting a strong sense of what it is like to be in the minority, however.    Thank you, Mr. Chairman, Ranking Member Peterson, and Members of the Committee, for this wonderful opportunity to provide testimony on this important bill.    And I am sure Wharton is fine, but it is clearly no Florida A&amp;M, so I am glad we got that out of the way. I wouldn't fault any of you for being curious right now about how a white Lutheran Republican from Fargo, North Dakota, gets hooked up with a black liberal Democrat from Georgia, but it has been a great pleasure, I'll tell you that.    The seeds of this bill that we are discussing were planted at the beginning of this Congress, 2 years ago in January, when I introduced H.R. 3, the Keystone XL Pipeline Act, as its lead cosponsor. And Congressman Scott, and I am not one bit shy about saying, changed my heart when he took to the floor to support that bill, to the point where this very conservative capitalist Republican went to his office to learn more, to learn more about his vision for how we change America, about how we can use economic bills and economic solutions to solve social problems and crises. And I thought to myself, man, if I believe that a rising tide lifts all boats, then I need to hang around David Scott more, because he taught me that there are legitimate strategic ways to do that. And I am so far off my script now, I am going to have a hard time getting down here.    But what he taught me, what he showed me is that, with a high unemployment rate among young black men, and nationwide it is about 40 percent, in many places it is 50 percent or higher, that with minor adjustments to policy, even outside of policy, David and I, ever since we have been working on policy together, we have been talking to companies and labor unions and trade organizations who are very enthused about being strategic, about how we match the workforce demands with the availability of a workforce and our education system, to get it all back in sync and change for the better. By the way, I want to stress, it is not just for economic benefit, not just for job creation, but to heal our land, for the benefit not just of our country but of this institution that needs help healing as well.    And so I am enthused, David, to stand here with you. You had me at the prayer, by the way. You had me at the prayer.    So our final amendment wasn't included in the Keystone XL bill, the amendment that would target enthusiasm for job training, but the concept lives on. And hopefully yet, as we start working on a major build-out of our infrastructure of this country, as we strive to feed a growing population in the world with the same number of acres or less, we need smart people. We need smart people who learn from the universities represented on the next panel to help us grow more food in a responsible way, to train up the engineers, to train up the soil agronomists, and train up the horticulturists and all those smart people that help our farmers do what they do so well, and that is feed a hungry world. And if in the process we serve a testimony to what people can do working together, all the more great, you see, to me, all the more great.    And so, Mr. Chairman, I am absolutely convinced that the concepts promoted in this legislation and in the companion legislation that David talked about earlier to provide targeted training and, really, encouragement more than anything, can change a country and can change this body and perhaps could change this town that is so vital to changing policy. And then in the process, we can go home and work on changing hearts as well, just as David Scott has done for me.    And so, with that, Mr. Chairman, thanks for the opportunity to highlight this important issue today.</t>
   </si>
   <si>
     <t>412642</t>
   </si>
   <si>
-    <t>Brad Ashford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ashford. Yes, thank you. And I would like to reflect just a bit as well, and I will be brief.    Nebraska is a state where the TransCanada pipeline has now ceased to go. In Nebraska, we struggled with trying to move the pipeline, and Kevin knows about this, and David. We have a little bit of history on the pipeline part of this or the construction job part of this.    But I also want to talk about the speech very quickly that David Scott gave on the floor, because I was only in the Congress a week or so when David gave that speech. And I have been working in my community for 35 years with the African American community, ran a housing authority, did work there, and have been struggling with how do we put together, as Representative Cramer aptly says, put together the job opportunities with the unemployment rates that are so staggering.    And when David gave that speech, and I was listening. I just, again, had been there just a brief time, maybe 2 weeks. I didn't know David very well. I didn't know anybody at that time. And I went up to David. I said, ``David, that was truly the greatest speech I have ever heard on the issue, because it, in fact, identified in clear language a problem and a crisis and an issue of black male unemployment between 18 and 39,'' something I have struggled with in my community my entire adult life, trying to find that way out. And I said, ``David, this is great, I want to get on this deal.''    So we talked to Kevin Cramer and all the other cosponsors got involved. But of all the pieces of legislation I have been involved in all my years of legislative experience in Nebraska and a few years here, this is really one that I am most proud of, because it really is, and combined with the scholarships, is just an ingenious merging together of the education with jobs and with the mentoring piece.    And I just want to take this opportunity in my last day or so here in Congress to underline my appreciation to the three of you, certainly, and to David for his eloquence that got me going 2 years ago on this issue.    Thank you, Mr. Chairman. I yield back.    The Chairman. The gentleman yields back.    Ms. Adams, 5 minutes.</t>
   </si>
   <si>
     <t>412607</t>
   </si>
   <si>
-    <t>Alma S. Adams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you. Thank you, Mr. Chairman.    And let me thank all of the Presidents and the deans and my colleagues for not only your support of this bill, but for the work that has been done on it. And, Congressman Scott, I especially want to thank you. I am just pleased to be a proud sponsor, a cosponsor as well.    But I sit here today in this Congress because of North Carolina A&amp;T State University. I am a proud alum. I am a graduate twice from North Carolina A&amp;T. I do want to recognize Dr. Antoine Alston, who is our Associate Dean for Academics at the College of Agriculture and Environmental Sciences. And I want to thank you for being here and thank North Carolina A&amp;T for all that it did for me, who took a poor black girl from the ghetto of Newark, New Jersey, came to North Carolina in the mid-sixties, was able to complete my work there, because A&amp;T saw a lot in me and what I could become, and they made an investment. And so I was able to complete my degrees there and to go on to the Ohio State University and complete my Ph.D. there, only because of the North Carolina A&amp;T.    So I say that to say that I understand the plight of students. I am a 40 year educator. I taught at Bennett College, a small college, African American women's college in Greensboro, for 40 years. I have that HBCU experience inside and out. And I understand what it did for me, and I know what our 1890 schools can do and what they have done.    And I am so pleased to support this legislation, because I know that it is going to not only benefit many of our students. Now, we do a lot with little. Our schools do a lot with little. I am proud to say that we are the largest HBCU in North Carolina and maybe even in the nation. I haven't looked at all the numbers. But we do great things for students who deserve an opportunity. And W.E.B. Du Bois said a long time ago that the most fundamental right is a right to education. And providing opportunities for scholarships for these young people will certainly do that, and help us with our unemployment rate.    I am proud to say that my daughter, my only daughter, is a graduate of North Carolina A&amp;T from the School of Agriculture, and is doing very well in Greensboro. But this is a field that is an important area. And as Congressman Scott has said, it is about everything, agriculture. It is about the clothes we wear. It is about energy, agribusiness, all of those things that we need and depend on.    I don't know if Congressman Mark Walker is still here, one of the members of his staff, who now, as they changed my district, you all may have heard about all of that. But, at any rate, I represented North Carolina A&amp;T and will through the end of this year. I am happy to not only advocate now but to continue to do that. But Congressman Walker has been given that part of the district now, and so I invited him to come. But I just want to say that we too have had some great Congressmen to come through from North Carolina A&amp;T. Former Congressman Jesse Jackson, Jr., Edolphus Towns, and now Alma S. Adams.    And so, Mr. Chairman, I just want to thank these gentlemen and ladies for coming today and for advocating for what I know will be a tremendous benefit to all of our schools and the many students that we seek to serve. I am way off script too.    But anyway, those are the comments of my heart. And I just wanted to thank all of you for being here and just say this is a very important piece of legislation, and we certainly hope that you will join us in supporting that and getting this bill passed.    Thank you very much, Mr. Chairman. I yield back.    The Chairman. The gentlelady yields back.    Austin Scott, 5 minutes.    Mr. Austin Scott of Georgia. Thank you, Mr. Chairman.    I just wanted to take a second to thank my long-time friend and colleague David Scott. We have known each other since 1996. He has been a great advocate on many things that have helped move the country in the right direction.    And any time I think of Fort Valley State, I can't help but think of another friend of ours, Lynmore James, who was a great advocate for Fort Valley, did a tremendous number of things when he was a Member of the State Legislature in Georgia and served with us. I just want to thank you, David, for your work on this, look forward to supporting it, and I look forward to continuing to work with you.    Mr. David Scott of Georgia. Thank you, sir.    The Chairman. The gentleman yields back.    Gwen Graham, 5 minutes.</t>
   </si>
   <si>
     <t>412620</t>
   </si>
   <si>
-    <t>Gwen Graham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Graham. Thank you, Mr. Chairman.    And I want to thank my colleague Mr. Scott for including me in this legislation. I am proud to be an original cosponsor as I am ending my term in Congress and leaving Congress. My district was redistricted too, Congresswoman Adams.    There is nothing that I could be prouder than to be able, in some of my last days, to be here advocating on behalf of HBCUs. And I want to recognize Dr. Robinson, who is the interim President of Florida A&amp;M University in Tallahassee, and I am so proud to represent the Rattlers. Strike, strike, strike again. I am still working on the wrist action, still working on it.    The 1890 land-grant universities, they have the important task of recruiting, educating, and ensuring that future generations are excited about, and prepared for, careers in agriculture. This is an immediate need. And I know that we must do all we can to support these wonderful universities in that effort.    This bill would make an education in agriculture more accessible and affordable. And I know in north Florida that what Florida A&amp;M is doing is helping young people get into the field of agriculture, and it is such a critically important area. As the age of those that are in agriculture goes up, we need to encourage young people to get into this wonderful field. Again, I want to thank you. It is such an honor to represent Florida A&amp;M.    And, Mr. Chairman, I yield back.    The Chairman. The gentlelady yields back.    Rick Allen, 5 minutes.</t>
   </si>
   <si>
     <t>412625</t>
   </si>
   <si>
-    <t>Rick W. Allen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Allen. Well, I have to tell my David Scott story real quick. But Kevin, all I can tell you is he walks the talk, because I had the opportunity to ride back to Georgia on an airplane and got to sit next to Congressman Scott. And he had his Bible open and, of course, we got into a discussion about his study and our faith journey. And I can't tell you, Congressman, how much I appreciate that opportunity to talk about how we could make a difference. Thank you, and thank you for walking the talk.    Mr. David Scott of Georgia. Thank you very much. I appreciate that.    The Chairman. The gentleman yields back.    Are there others who want to be heard?    I want to thank our first panel for getting us kicked off in a great way.    We will now ask our second panel to join us at the witness table.    The Chairman. I would like to welcome our second panel now to the witness table.    We first have Dr. Juliette Bell, who is President, University of Maryland Eastern Shore, Princess Anne, MD, outgoing chair of the Council of 1890s Executive Committee. We also have with us Dr. Cynthia Jackson-Hammond, who is President, Central State University, Wilberforce, Ohio; and Dr. Paul Jones, President, Fort Valley State University, Fort Valley, Georgia.    I would also again like to welcome the other Presidents and representatives of the other schools. During the question-and-answer period, Members will be able to ask questions not only of the witnesses at the table, but of any of the other guests who represent the 1890s schools.    So, with that, Dr. Bell, the floor is yours for 5 minutes.        STATEMENT OF JULIETTE B. BELL, Ph.D., PRESIDENT,                 OF 1890's EXECUTIVE COMMITTEE,</t>
   </si>
   <si>
-    <t>Bell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Bell. Thank you very much. And good morning to the House Agriculture Committee. It is my great pleasure to have another opportunity to speak before this august group.    First, I want to thank the Chairman for his support and for providing this opportunity for us to speak before the Committee. And I also want to thank Congressman Scott for his diligence and his undying support, and those who are also cosponsors of this bill. We are very encouraged by your support and we appreciate the opportunity to speak before you this morning.    As was said, my name is Dr. Juliette Bell. I am the President of the University of Maryland Eastern Shore, and the immediate past Chair of the Council of 1890 Universities, and of the USDA/1890 Task Force established by the U.S. Secretary of Agriculture.    My purpose here this morning is to really speak to you about the importance of providing scholarship support that will help our students to achieve their dreams of careers in the agriculture fields.    Let me start by saying, I grew up on a farm in Alabama. I picked cotton and corn and all other kinds of things. And one of my greatest ambitions was to get off the farm, and I was able to do that as a result of being a first-generation college student with support through scholarship. I find it in some ways ironic and in some ways divine providence that I am now leading a school that is a land-grant agriculture-based institution, because many of my students have similar backgrounds to myself. They are first generation, economically disadvantaged students.    The advantage that I see for my current students is that the agricultural field has evolved greatly, and there are many opportunities for our students to explore the use of technology and to learn what modern agriculture really is all about. We want to be able to increasingly provide that opportunity to more students of African American descent and help them to be a part of the American Dream.    As I mentioned, we serve a very diverse student population. Many of my students, about 50 percent are first-generation college students; and about 70 percent of my students are Pell-eligible, meaning they are also economically disadvantaged. And, on top of that, about 90 percent of my students depend on some form of financial aid.    When students in that situation are faced with whether they can afford to come back to school, whether they are academically prepared or not, oftentimes they are forced to withdraw and as a result of that withdrawal, they lose the opportunity to achieve their dreams. This bill will provide the university, in particular my university, and the other 18 1890 institutions an opportunity to provide some financial support to those students who are academically well-prepared, but just not economically prepared to sustain their educational experience.    We know that the workforce is underrepresented in terms of African Americans in agriculture. We also know that the workforce is graying, especially in agriculture. I believe I heard that the average age for farmers now is 60+ years, and among African Americans that number is proposed to be much higher. We also know that it is important that students know that agriculture is a career that they can pursue and that there are jobs.    A report that I cited in my testimony indicates that ten percent of the economy is driven by agriculture, but the number of jobs that are being filled is much less, and the diversity of those jobs is even less.    So this bill will provide our universities, which are often not able through endowments and private funding, to be able to provide that level of support to these very deserving students, not just to help them get a degree, but to address the workforce needs and the economic development of our regions, and of our country.    So, again, I ask for your support. I thank you for this opportunity, and I will be happy to answer any questions.</t>
   </si>
   <si>
-    <t>Jackson-Hammond</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Jackson-Hammond. Thank you, Mr. Chairman, and thank you, Committee, for allowing me to be here to talk about some of the issues that are associated with Central State University and other 1890 universities.    I must try to restrain myself because, as a college President, the first thing you want to do is tell the wonderful things about your university. I don't have much restraint. Let me begin by telling you a little bit about Central State University.    Central State University is the only 1890 public land-grant university. We are also partners with an 1860, a little school in Columbus called the Ohio State University. Our partnership with them is very, very critical to making sure that we are meeting the needs of the people of the entire State of Ohio.    We are the last of the 1890 institutions, receiving the designation February 13, 2014. And that was really a charge that came out of the farm bill and supported so fervently by so many people. And we certainly do want to recognize Congresslady Marcia L. Fudge, who we have adopted as a Centralian, and we thank her for all of her efforts in that regard.    We do have wonderful alums who have come from Central State University, and the list goes on. But one that you might know quite easily is Congresslady Joyce Beatty, who is a soft-spoken, demure Congresslady who has done a tremendous amount of work here in support of land-grant institutions. She is one of our stellar alums.    You've heard President Bell talk about the needs of our students. And I want to make sure that we are very clear in understanding that the students who attend 1890 universities are very academically gifted students. We have the same sort of expectations, the same requirements, the same performance outcomes as any 1860 university. We expect for our students to perform. We expect for them to be contributors to society. We expect for them to get in, get out, get a job and contribute to the State of Ohio.    We are very, very happy to know that we have a supportive governor, Governor John Kasich, who supports Central State; Representative Jim Buchy from Ohio, who is also a very supportive person for Central State's 1890 land-grant initiatives. On our staff, we have retired Senator Chris Widener from Ohio, who is also a proponent of support for Central State University.    Our main focus as an 1890 university is to address some of the common issues that plague so many of our Ohio residents: Health issues, nutrition, obesity, high blood pressure, all of those issues that really can be ameliorated through a very, very sound agriculture program. What do you eat? What do you do with the food that you ingest? We are really proud to have a research component and an extension component that reaches out to ten counties, along with the Ohio State University, to try to solve those issues.    This particular legislation, H.R. 6020, will allow students, and not just African American students, but a vast amount of all students who wish to seek this kind of educational experience, to be contributing citizens of the State of Ohio. It is important that we begin very early in training and preparing students to understand their worth and value added to the state. In support of H.R. 6020, we need this sort of legislation to help keep students in school.    Basically, you cannot get a job at USDA or improve the economy if you are not well-educated. H.R. 6020 allows us to provide those opportunities. Too many of our students stop out, not because of academic reasons but because of financial reasons. And this is a burden on the families and on the students. And in order to make sure that we are meeting the state performance for students being able to contribute, they have to be able to get into school, complete their course of study within 4 or 4\\1/2\\ years.    Now, if you are a STEM-Ag major, it is going to take you a little bit longer because of the increased number of science courses that are associated with those fields. They need some additional help. Our students who are in our STEM-Ag programs, they get employment opportunities before they graduate. Water resource management, agribusiness, sustainable ag, ag education. It is important that we keep those students in school and try to increase the number of students who are going into those fields.    Students make the decision about what field they want to go into based on what they can afford. And it should not be that. It should not be that rationale. It should be what can we do to contribute to the state and to the nation. By 2020, USDA has said that they will have over 60,000 job availabilities. We need to be in a position to fill those jobs.    We ask for your support for H.R. 6020, and we know that we will make a difference because of its passage. Thank you very much.</t>
   </si>
   <si>
-    <t>Jones</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Jones. Chairman Conaway, Ranking Member Peterson, and Members of the House Committee on Agriculture, my name is Paul Jones and I am privileged to serve as the 10th President and probably the newest President of the 1890 Fort Valley State University, which is located in the heart of middle Georgia.    I am honored to be here today, along with several of my colleagues, to testify for your support, support of scholarships for young men and women who aspire to serve our nation pursuing careers in the agricultural and related fields.    This bill is designed to address the urgent need to train and educate students to fill crucial jobs in our country. USDA estimates, as Dr. Jackson-Hammond said, nearly 60,000 jobs will be available in these related fields, and yet they only anticipate our ability to meet the needs of about 30,000. There is a significant gap.    With the resources from this scholarship support, we believe, as 1890 institutions, that not only do we have the potential, but we have the capacity to address this urgent concern. The National Center on Educational Statistics data shows the power and potential of HBCUs. The data reveals that while HBCUs constitute three percent of postsecondary institutions, they are home to approximately eight percent of African Americans enrolled in colleges and universities during the period of 2012 to 2014. And NCES predicts that African American enrollment in higher education will increase through 2025.    The characteristics in the same USDA report reflects that the percentage of ethnic minority students in agriculture, life sciences, veterinary medicine will continue that increase. And 1890 land-grant institutions have played a major role in fueling this continued increase. We are proud at Fort Valley State University in that we have the distinction of ranking number six in awarding the number of agricultural degrees earned by African Americans. And this funding is important as HBCUs look to actively recruit and embrace a more diverse student body.    There is a popular misperception about HBCUs and 1890 land-grant institutions, and that is that we are not diverse. As a matter of fact, HBCUs and 1890s are very diverse, diverse in terms of race, ethnicity, political backgrounds, nationality, you name it. And issues of affordability and the strength of, I believe, our academic programs have been major factors in ushering this diversity, this welcome diversity that we are seeing on our campuses.    The notoriety of signature academic research that we do, at Fort Valley State we are very proud of the cutting-edge research that we are doing; and we do that even partnering with many of our other land-grant institutions, both 1890 and 1860 institutions. The fact that our biotechnology and plant science graduates routinely are accepted in Ph.D. programs across the country is a testimony to the quality. And I believe that quality is something that we all share together. It is often another misconception that to choose our campuses is to sacrifice in terms of quality.    I have attended two land-grant institutions in my career, and I will say that our land-grant institution, and the other 1890s, equally have the same quality. And we are under the same accreditation as our peer institutions. And so we don't apologize for what we do.    But your support of this legislation I believe is very important, important not only to us but the history--or the future of this country in our number one industry.    I thank you for allowing me a few minutes to testify before you. I thank you for your support, your bipartisan support, and we look forward to your conversation. Thank you.</t>
   </si>
   <si>
@@ -172,9 +139,6 @@
     <t>400220</t>
   </si>
   <si>
-    <t>Steve King</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman. I appreciate being recognized and I appreciate the testimony of the witnesses.    I want to start out and say I am completely convinced all of your hearts are right. And we will make that point first, but then I want to put a little piece of history in. We always have to do that for our own locale and point out that the Iowa Legislature was the first state legislature to accept the provisions of the original Morrill Act. They did that on September 11, 1862. And they would have been the first designation of a state agriculture college had it not been for K-State, bumped us on the third turn and slipped in ahead of us.    So we pay attention to land-grant colleges and know what it means to have the resources. I would prefer that they were based on the land, especially when you are focused on agriculture, rather than on the cash that came with the 1890 version. However, that is where we are today and land is a lot harder to come by, so I don't see any reason to try to change that. It is just, I notice the distinction.    And I wanted to point out also that listening to the spirit of this discussion here, that the inner cities in America are a disaster. Anything that we look at from the data out of the inner cities, especially young men, especially young African American men, it is a resource to this country that we have just not figured out how to mobilize. We haven't figured out how to lift them up and get them into the flow.    And I say that because the next statement I want to make is, and I would sense this from Dr. Bell in particular, but the rest of you, the very best place in the world to raise a family is on a family farm. And if we are going to do good things to help our society to go in the right direction, then for me, if we can get people going to the farm and raising their families there, they learn about the whole spectrum of life, the cycles of life of livestock from birth to death, to, we call it now harvest rather than that other word that seems to be abhorrent to people in the inner city, and it is what I grew up all around and had to wash it off my hands afterwards. But, all new wealth comes from the land. And we can trace every dollar right back to that soil.    So this is inspiring to me in these ways. But I am getting to a but. And it is this, that I have a deep conviction and strong support for Ward Connerly's Proposition 209 in California. I have invested a significant amount of my legislative time in that and succeeded to a degree, in fact, in conflict with the current Secretary of Agriculture, Secretary Vilsack. But I would point out for this Committee what that proposition is, and we haven't had discussions in a long time on that. And it says this: The state, meaning the State of California, that was a constitutional amendment, the state shall not discriminate against or grant preferential treatment to any individual or group on the basis of race, sex, color, ethnicity, or national origin in the operation of public employment, public education, or public contracting.    Now, that language of race, sex, color, ethnicity, or national origin is lifted exactly out of Title VII of the Civil Rights Act, and I support it 100 percent. It is the right thing. It is the right thing for us to pour forth all resources and all constitutional focus and all statutory focus to provide equal opportunity.    And so my question, and I would start first with Dr. Bell, is this an equal opportunity bill before us or is it a preferential treatment bill before us?</t>
   </si>
   <si>
@@ -244,9 +208,6 @@
     <t>412463</t>
   </si>
   <si>
-    <t>Bob Gibbs</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gibbs. Thank you, Mr. Chairman.    Talk about a little bit, Dr. Jackson-Hammond is from Ohio, Central State, and they are doing a great job down there. And they started a new ag education program that is much needed, and she mentioned in her testimony about the job placement and how these are the next generation of young men and women that are getting jobs right off the bat, so the need is there, and also the program they are doing with water and it is a huge issue in Ohio with Lake Erie and some other areas in the state with some challenges.    But something I want to maybe reemphasize, it is really important, Central State is the last 1890 land-grant, and they just became that, I don't know, 3 or 4 years ago?</t>
   </si>
   <si>
@@ -277,9 +238,6 @@
     <t>412659</t>
   </si>
   <si>
-    <t>Stacey E. Plaskett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Plaskett. Thank you, sir, and thank you so much for the dedication and all of the work that you give young people all over this country. I have a son who is presently at the University of Arkansas in Pine Bluff where he is doing a fantastic job and really loves his experience there. He is the third generation to go to that institution, and the students are stellar from that institution and from so many of your own.    One of the things that I was interested in finding out was, Dr. Jones, in your testimony, your written testimony, you discuss that there is a 28 percent increase in agricultural degree program enrollment at Fort Valley State between 2014 and 2015. Can you explain what is the cause of that increase? And do you sense that there are more young people being drawn to the agricultural careers or is there another reason why this may be happening?</t>
   </si>
   <si>
@@ -322,9 +280,6 @@
     <t xml:space="preserve">    Ms. Graham. Thank you, Doctor.    Mr. Chairman, I think Dr. Robinson would like to say a couple of words from FAMU, I would appreciate that opportunity. Thank you.    The Chairman. Be brief. We are trying to get everybody in, so be brief. RESPONSE OF LARRY ROBINSON, Ph.D., INTERIM PRESIDENT, FLORIDA </t>
   </si>
   <si>
-    <t>Robinson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Robinson. Thank you, Representative Graham, for what you have done on behalf of north Florida, and in particular Florida A&amp;M University. And thank you very, very much for the novel concept of the road tour so we can tell more people in north Florida about what we do at Florida A&amp;M University for small, large, medium farmers around the state. We are a land-grant institution and we have a statewide impact.    I guess one key point I want to make, and that is the economic impact that we have in the State of Florida. Just as an example, Florida A&amp;M University has a Center for Viticulture. That center has led to the development of nearly 20 viticulture operations around the State of Florida. Of course, we specialize in the type of wine that doesn't grow everywhere else because of the climate in Florida. But the economic impact of the research done by Florida A&amp;M University doesn't directly benefit us because we are prohibited from benefiting from it financially. But we have developed at least 20 wineries around the State of Florida that are making jobs available for citizens, not only up in the Panhandle, but throughout the state. And in fact, it expanded throughout the South in general.    There are vineyards and wineries in South Carolina, and our neighbors, Representative Scott up in Georgia, who are benefiting from the research done at Florida A&amp;M University. I just want to emphasize the economic impact of these institutions in the 1890 community on the cities and towns in which we reside. Thank you.</t>
   </si>
   <si>
@@ -334,9 +289,6 @@
     <t>412436</t>
   </si>
   <si>
-    <t>Dan Benishek</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Benishek. Thank you, Mr. Chairman. I thank you all for being here this morning.    I just want to make it clear about this bill, is there a preference in the legislation for students from a certain area or background or is every student on a level playing field in regard to these scholarships? Anyone?</t>
   </si>
   <si>
@@ -410,9 +362,6 @@
   </si>
   <si>
     <t>412536</t>
-  </si>
-  <si>
-    <t>Rodney Davis</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Davis. Thank you to the panel and thank you, Mr. Chairman.    I too, Dr. Jones, had questions about veterans. And if you have anything to add in regards to how your programs or how H.R. 6020 would help recruit veterans, I mean, you are more than welcome to expand on your first answer, if you would.</t>
@@ -883,11 +832,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -907,13 +854,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -933,13 +878,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -961,11 +904,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -987,11 +928,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1013,11 +952,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1037,13 +974,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1063,13 +998,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1089,13 +1022,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1115,13 +1046,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1143,11 +1072,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>35</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1169,11 +1096,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1195,11 +1120,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>39</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1221,11 +1144,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1247,11 +1168,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1273,11 +1192,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1299,11 +1216,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>35</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1325,11 +1240,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1351,11 +1264,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>39</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1377,11 +1288,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1403,11 +1312,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>35</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1429,11 +1336,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1455,11 +1360,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
         <v>39</v>
-      </c>
-      <c r="H24" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1479,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" t="s">
-        <v>52</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1507,11 +1408,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>35</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1531,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" t="s">
-        <v>52</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1559,11 +1456,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>35</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1583,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" t="s">
-        <v>52</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1611,11 +1504,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>37</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1635,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" t="s">
-        <v>52</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1663,11 +1552,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>39</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1687,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" t="s">
-        <v>52</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1715,11 +1600,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>37</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1739,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
         <v>51</v>
-      </c>
-      <c r="G35" t="s">
-        <v>52</v>
-      </c>
-      <c r="H35" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1765,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1793,11 +1672,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>35</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1817,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1845,11 +1720,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>37</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1869,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1897,11 +1768,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>39</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1921,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1949,11 +1816,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>35</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1975,11 +1840,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>37</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2001,11 +1864,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>39</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2025,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2051,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>75</v>
-      </c>
-      <c r="G47" t="s">
-        <v>76</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2079,11 +1936,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>37</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2103,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>75</v>
-      </c>
-      <c r="G49" t="s">
-        <v>76</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2131,11 +1984,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>37</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2155,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>75</v>
-      </c>
-      <c r="G51" t="s">
-        <v>76</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2183,11 +2032,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>37</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2207,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>75</v>
-      </c>
-      <c r="G53" t="s">
-        <v>76</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2235,11 +2080,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>37</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2259,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>75</v>
-      </c>
-      <c r="G55" t="s">
-        <v>76</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2285,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>86</v>
-      </c>
-      <c r="G56" t="s">
-        <v>87</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2313,11 +2152,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>39</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2337,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>86</v>
-      </c>
-      <c r="G58" t="s">
-        <v>87</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2365,11 +2200,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>39</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2389,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>86</v>
-      </c>
-      <c r="G60" t="s">
-        <v>87</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2417,11 +2248,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>39</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2441,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>86</v>
-      </c>
-      <c r="G62" t="s">
-        <v>87</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2469,11 +2296,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>37</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2493,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>86</v>
-      </c>
-      <c r="G64" t="s">
-        <v>87</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2521,11 +2344,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>39</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2547,11 +2368,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>39</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2571,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
-      </c>
-      <c r="G67" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2599,11 +2416,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>37</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2623,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
-      </c>
-      <c r="G69" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2651,11 +2464,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>102</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2675,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2701,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>105</v>
-      </c>
-      <c r="G72" t="s">
-        <v>106</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2729,11 +2536,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>35</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2753,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>105</v>
-      </c>
-      <c r="G74" t="s">
-        <v>106</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2781,11 +2584,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>35</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2805,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>105</v>
-      </c>
-      <c r="G76" t="s">
-        <v>106</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2833,11 +2632,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>35</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2857,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>105</v>
-      </c>
-      <c r="G78" t="s">
-        <v>106</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2885,11 +2680,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>35</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2911,11 +2704,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>37</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2935,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>105</v>
-      </c>
-      <c r="G81" t="s">
-        <v>106</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2963,11 +2752,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>37</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2987,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>105</v>
-      </c>
-      <c r="G83" t="s">
-        <v>106</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3015,11 +2800,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>37</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3039,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>105</v>
-      </c>
-      <c r="G85" t="s">
-        <v>106</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3067,11 +2848,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>39</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3091,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>105</v>
-      </c>
-      <c r="G87" t="s">
+        <v>90</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
         <v>106</v>
-      </c>
-      <c r="H87" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3119,11 +2896,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>39</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3143,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>105</v>
-      </c>
-      <c r="G89" t="s">
-        <v>106</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3171,11 +2944,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>39</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3197,11 +2968,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>37</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3223,11 +2992,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>39</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3249,11 +3016,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>35</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3273,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>105</v>
-      </c>
-      <c r="G94" t="s">
-        <v>106</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3301,11 +3064,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>35</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3325,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>105</v>
-      </c>
-      <c r="G96" t="s">
-        <v>106</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3351,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>131</v>
-      </c>
-      <c r="G97" t="s">
-        <v>132</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3379,11 +3136,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>39</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3403,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>131</v>
-      </c>
-      <c r="G99" t="s">
-        <v>132</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3431,11 +3184,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>39</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3455,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>131</v>
-      </c>
-      <c r="G101" t="s">
-        <v>132</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3483,11 +3232,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>39</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3507,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>131</v>
-      </c>
-      <c r="G103" t="s">
-        <v>132</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3535,11 +3280,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>35</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3559,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>131</v>
-      </c>
-      <c r="G105" t="s">
-        <v>132</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3587,11 +3328,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>35</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3611,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>131</v>
-      </c>
-      <c r="G107" t="s">
-        <v>132</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3639,11 +3376,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>35</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3663,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>131</v>
-      </c>
-      <c r="G109" t="s">
-        <v>132</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3691,11 +3424,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>102</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3715,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>131</v>
-      </c>
-      <c r="G111" t="s">
-        <v>132</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3741,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G112" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3769,11 +3496,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>39</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3793,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
-      </c>
-      <c r="G114" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3821,11 +3544,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>37</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3845,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
-      </c>
-      <c r="G116" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3873,11 +3592,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>35</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3897,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
-      </c>
-      <c r="G118" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3925,11 +3640,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>35</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3949,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
-      </c>
-      <c r="G120" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22979.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22979.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,57 +55,105 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Abdullah</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Abdullah. Thank you very much.    The Chairman. Okay, thank you. Dr. Anthony Jenkins, President of West Virginia State University.    Dr. Larry Robinson, interim President for Florida A&amp;M University. Dr. Robinson, glad you are here.    Dr. Kirk Pomper, Director of Land-Grant Programs in Kentucky State University.    Dr. Albert Essel, Director of Cooperative Research and 1890 Administrator, Lincoln University. Good morning, sir.    Zachary Faison, General Counsel and Vice President for External Affairs, Tuskegee University. Zachary, good morning.    Dr. Antoine Alston, Associate Dean for the College of Agriculture and Environmental Sciences, North Carolina A&amp;T.    And finally, Mr. Tony Wells, previous President of the Alumni Association for Tennessee State University. Tony, good to have you with us this morning.    If there are others in the audience who we haven't mentioned, please know you are welcome. We are glad you are here. We value your contribution.</t>
   </si>
   <si>
     <t>400316</t>
   </si>
   <si>
+    <t>Peterson</t>
+  </si>
+  <si>
+    <t>Collin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Peterson. Thank you, Mr. Chairman. And welcome, everybody, to today's Agriculture Committee hearing.    As the Chairman said, today's hearing is focused on recruitment challenges and scholarship opportunities at 1890 land-grant universities. We are also going to be learning more about legislation sponsored by Congressman David Scott, H.R. 6020, to make more scholarships available to students attending these schools. Our land-grant universities play an important role in agricultural research, extension, and educational programs, and I am looking forward to hearing today's testimony.    I want to welcome the 1890 Presidents who are joining us today and some of whom were here last summer when we met to recognize the 125th anniversary of the Second Morrill Act.    Before I yield back, Mr. Chairman, this is our final hearing of this Congress, hopefully.    The Chairman. Yes.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Peterson. And I believe that we have held more than 80 hearings, which is a record. As we wrap up here, I want to just thank all the Members for their hard work and the Chairman for his leadership and service to the Committee. And, with that, I yield back.    The Chairman. Well, I thank the Ranking Member for those kind comments at the end. We have had a great 114th Congress and most of us are looking forward to a great 115th Congress. We may have a few folks that move on to committees of lesser importance throughout the Congress as we move forward, but it has been a great pleasure.    So, with that, the chair will request other Members submit their opening statements for the record, so the witnesses may begin their testimony and to assure there is ample time for questions.    I would like to welcome our first panel, the Honorable David Scott, Member of Congress from Georgia, Member of the Committee; the Honorable Emanuel Cleaver, Member of Congress from Missouri; and the Honorable Kevin Cramer, the only Member of Congress from North Dakota.    Congressman Scott, begin when you are ready, sir.    Mr. David Scott of Georgia. Well, thank you very much, Mr. Chairman. First of all, I want to thank you, Chairman Conaway, for your dedication and for your understanding, and for your longtime support of the 1890s African American colleges and universities. Thank you so much for this hearing.    I also want to thank Speaker Paul Ryan, who was very helpful to us in getting this moving.    And I certainly want to thank our Ranking Member Peterson for the great job he has done over the years. He has been a champion of the 1890s.    I want to thank my cosponsors too, if I may, Mr. Chairman. Representative Kevin Cramer, my dear good friend. We have been on this journey now for a couple of years in getting this bill moving and our bill to provide training and job training for African American young men as we move to rebuild the crumbling infrastructure. I want to thank Ms. Marcia L. Fudge, our former Chairwoman of the Congressional Black Caucus, who has been a stalwart supporter of our African American schools; Brad Ashford from Nebraska, who is a great sponsor; Mrs. Mia Love, another one of our Republican cosponsors; Ms. Gwen Graham; Ms. Alma S. Adams; Mr. Pete Sessions, who is the Chairman of our Rules Committee; and my good friend Reverend Emanuel Cleaver, who is an extraordinary champion. Thank you all for this. We appreciate it.    Thank you for your staff work on this, Mr. Chairman, your staff, and my hardworking staff of Ashley and the team back in my office.    This is a monumental moment in the history of our African American colleges and universities, ladies and gentlemen. We humbly come before this Committee to plead our case that we establish the grants in this bill that will enable the African American land-grant universities to be able to provide $1 million each year for scholarships for our African American students. The caveat is that the African American students will then commit to careers in this burgeoning field of business agriculture. The most important industry in the world is agriculture. It is the food we eat. It is the clothes we wear. It is our energy. It is high finance. It is derivatives. It is risk management. It is commodities and futures trading abroad, which makes just the derivatives sector a $800 trillion piece of the world's economy. And we want this opportunity for our students.    I want to say one other thing. There was a great conversation that was held by two great Americans. One, President Abraham Lincoln; the other, General Robert E. Lee. The Civil War had ended. And they had this conversation right on these hallowed grounds. And as they looked over the expanse and looked south to Virginia, Mr. Lincoln said to General Lee, ``It is not incumbent for us to complete this task,'' and before he could finish that, General Lee finished that sentence by saying, ``But, Mr. President Lincoln, neither are we free to desist from doing all we possibly can.''    That is what is at our place today. And, Mr. Chairman, I want us to have this opportunity. There is no greater need in the African American community, as in all communities, than economics, jobs, financial security, and the education and job training that goes along with them. That is why all of us sponsors have sponsored a companion bill to provide job training targeted for the 18-39, the hardest hit group, to help build the crumbling infrastructure. That sits in another committee, but today this is the education piece.    And, Mr. Chairman, this also gives us an opportunity. I received some notice that President-elect Donald Trump is interested in what we are doing with these two bills. I want us to have an opportunity, give us this opportunity, because in these two bills it is the Secretary of Labor that will be the supervisory agency for the jobs bill, but this bill will come under the new Secretary of Agriculture. It is important that we engage them.    And I take President Trump, and as many of you know or some of you may not know, he and I finished from the great Wharton School of Finance at the University of Pennsylvania together. I ask for an opportunity to allow us to work, and maybe we bring some of that Wharton School of Business magic to this. I appreciate the opportunity to do that and hope you will pass this bill out. Thank you.    [H.R. 6020 and H.R. 6021 follow:] H.R. 6020, Funding for Student Scholarships for the 1890s Land-Grant              African-American Colleges and Universities Act                                          H.R. 6021, Jobs, On-the-Job `Earn While You Learn' Training, and            Apprenticeships for African-American Young Men Act                                                 The Chairman. The gentleman yields back.    Reverend Cleaver.</t>
   </si>
   <si>
+    <t>Cleaver</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cleaver. Thank you, Mr. Chairman and Ranking Member Peterson, for having this hearing. And I would thank my colleague David Scott for the vision that he has. You will hear from my esteemed colleagues, the original sponsors of H.R. 6020, on the importance of this legislation and its benefits.    I will just say that this bill is critical if we are to increase the number of African American young people seeking careers in agriculture and agribusiness. When I look back, I happen to have known both of my great-grandfathers. On the Cleaver side, they tend to live into their nineties. My father just reached 94. I had the chance to know them. And on both sides, they were farmers. Henry Barton and the Reverend Noah Albert Cleaver, my great-grandfathers. And my great-uncle was the head of the agricultural department at Prairie View A&amp;M University.    There is an 1890 university in my state, Lincoln University, and we are very proud of it, as I am proud to be a Prairie View A&amp;M graduate, in fact. When my nephew graduated 2 years ago, he made the 15th Cleaver to graduate from Prairie View. And it is a school that has produced two Members of Congress. Some of you probably served with Craig Washington, who filled the seat that is now held by Sheila Jackson Lee of Houston. And many people know of the Gang of Three in New York, one of them Percy Sutton. You see his name almost always associated with Congressman Charlie Rangel. Percy Sutton is a Prairie View graduate, as is Mr. T. Mr. T was a freshman when I was a senior. And Cecil Cooper who, for the baseball fans, played for the Red Sox. And, of course, Otis Taylor and Ken Houston and Jim Kearney and many others were NFL standouts.    Lincoln University in Jefferson City was established at the end of the Civil War by members of the 62nd United States Colored Infantry. It was created to educate freed African Americans. The school was founded on the idea of combining study and labor. In 1890, Lincoln became a land-grant institution, enabling the university to offer industrial and agricultural courses. As one of Missouri's two historically black colleges and universities, Lincoln University has continued to open its doors to a diverse population.    You may be surprised to learn that my close friend, Blaine Luetkemeyer, is a graduate of an HBCU, Lincoln University. And Prairie View A&amp;M University, the first state-supported college in Texas for African Americans, was established during the reconstruction period after the Civil War. It is the second oldest public institution of higher education in Texas.    Thank you, Mr. Chairman and Ranking Member, and especially to my colleague and friend David Scott.    The Chairman. I thank the gentleman. Do I have it correct that both you and David have degrees from land-grant schools?</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Cleaver. Yes. I am a graduate of Prairie View.    The Chairman. And David?    Mr. David Scott of Georgia. And I am a graduate of Florida A&amp;M University.    The Chairman. All right.    Mr. David Scott of Georgia. Go Rattlers.    The Chairman. Mr. Cramer, can you top that, sir?</t>
   </si>
   <si>
+    <t>Cramer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cramer. No, Mr. Chairman. I am getting a strong sense of what it is like to be in the minority, however.    Thank you, Mr. Chairman, Ranking Member Peterson, and Members of the Committee, for this wonderful opportunity to provide testimony on this important bill.    And I am sure Wharton is fine, but it is clearly no Florida A&amp;M, so I am glad we got that out of the way. I wouldn't fault any of you for being curious right now about how a white Lutheran Republican from Fargo, North Dakota, gets hooked up with a black liberal Democrat from Georgia, but it has been a great pleasure, I'll tell you that.    The seeds of this bill that we are discussing were planted at the beginning of this Congress, 2 years ago in January, when I introduced H.R. 3, the Keystone XL Pipeline Act, as its lead cosponsor. And Congressman Scott, and I am not one bit shy about saying, changed my heart when he took to the floor to support that bill, to the point where this very conservative capitalist Republican went to his office to learn more, to learn more about his vision for how we change America, about how we can use economic bills and economic solutions to solve social problems and crises. And I thought to myself, man, if I believe that a rising tide lifts all boats, then I need to hang around David Scott more, because he taught me that there are legitimate strategic ways to do that. And I am so far off my script now, I am going to have a hard time getting down here.    But what he taught me, what he showed me is that, with a high unemployment rate among young black men, and nationwide it is about 40 percent, in many places it is 50 percent or higher, that with minor adjustments to policy, even outside of policy, David and I, ever since we have been working on policy together, we have been talking to companies and labor unions and trade organizations who are very enthused about being strategic, about how we match the workforce demands with the availability of a workforce and our education system, to get it all back in sync and change for the better. By the way, I want to stress, it is not just for economic benefit, not just for job creation, but to heal our land, for the benefit not just of our country but of this institution that needs help healing as well.    And so I am enthused, David, to stand here with you. You had me at the prayer, by the way. You had me at the prayer.    So our final amendment wasn't included in the Keystone XL bill, the amendment that would target enthusiasm for job training, but the concept lives on. And hopefully yet, as we start working on a major build-out of our infrastructure of this country, as we strive to feed a growing population in the world with the same number of acres or less, we need smart people. We need smart people who learn from the universities represented on the next panel to help us grow more food in a responsible way, to train up the engineers, to train up the soil agronomists, and train up the horticulturists and all those smart people that help our farmers do what they do so well, and that is feed a hungry world. And if in the process we serve a testimony to what people can do working together, all the more great, you see, to me, all the more great.    And so, Mr. Chairman, I am absolutely convinced that the concepts promoted in this legislation and in the companion legislation that David talked about earlier to provide targeted training and, really, encouragement more than anything, can change a country and can change this body and perhaps could change this town that is so vital to changing policy. And then in the process, we can go home and work on changing hearts as well, just as David Scott has done for me.    And so, with that, Mr. Chairman, thanks for the opportunity to highlight this important issue today.</t>
   </si>
   <si>
     <t>412642</t>
   </si>
   <si>
+    <t>Ashford</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ashford. Yes, thank you. And I would like to reflect just a bit as well, and I will be brief.    Nebraska is a state where the TransCanada pipeline has now ceased to go. In Nebraska, we struggled with trying to move the pipeline, and Kevin knows about this, and David. We have a little bit of history on the pipeline part of this or the construction job part of this.    But I also want to talk about the speech very quickly that David Scott gave on the floor, because I was only in the Congress a week or so when David gave that speech. And I have been working in my community for 35 years with the African American community, ran a housing authority, did work there, and have been struggling with how do we put together, as Representative Cramer aptly says, put together the job opportunities with the unemployment rates that are so staggering.    And when David gave that speech, and I was listening. I just, again, had been there just a brief time, maybe 2 weeks. I didn't know David very well. I didn't know anybody at that time. And I went up to David. I said, ``David, that was truly the greatest speech I have ever heard on the issue, because it, in fact, identified in clear language a problem and a crisis and an issue of black male unemployment between 18 and 39,'' something I have struggled with in my community my entire adult life, trying to find that way out. And I said, ``David, this is great, I want to get on this deal.''    So we talked to Kevin Cramer and all the other cosponsors got involved. But of all the pieces of legislation I have been involved in all my years of legislative experience in Nebraska and a few years here, this is really one that I am most proud of, because it really is, and combined with the scholarships, is just an ingenious merging together of the education with jobs and with the mentoring piece.    And I just want to take this opportunity in my last day or so here in Congress to underline my appreciation to the three of you, certainly, and to David for his eloquence that got me going 2 years ago on this issue.    Thank you, Mr. Chairman. I yield back.    The Chairman. The gentleman yields back.    Ms. Adams, 5 minutes.</t>
   </si>
   <si>
     <t>412607</t>
   </si>
   <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Alma</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you. Thank you, Mr. Chairman.    And let me thank all of the Presidents and the deans and my colleagues for not only your support of this bill, but for the work that has been done on it. And, Congressman Scott, I especially want to thank you. I am just pleased to be a proud sponsor, a cosponsor as well.    But I sit here today in this Congress because of North Carolina A&amp;T State University. I am a proud alum. I am a graduate twice from North Carolina A&amp;T. I do want to recognize Dr. Antoine Alston, who is our Associate Dean for Academics at the College of Agriculture and Environmental Sciences. And I want to thank you for being here and thank North Carolina A&amp;T for all that it did for me, who took a poor black girl from the ghetto of Newark, New Jersey, came to North Carolina in the mid-sixties, was able to complete my work there, because A&amp;T saw a lot in me and what I could become, and they made an investment. And so I was able to complete my degrees there and to go on to the Ohio State University and complete my Ph.D. there, only because of the North Carolina A&amp;T.    So I say that to say that I understand the plight of students. I am a 40 year educator. I taught at Bennett College, a small college, African American women's college in Greensboro, for 40 years. I have that HBCU experience inside and out. And I understand what it did for me, and I know what our 1890 schools can do and what they have done.    And I am so pleased to support this legislation, because I know that it is going to not only benefit many of our students. Now, we do a lot with little. Our schools do a lot with little. I am proud to say that we are the largest HBCU in North Carolina and maybe even in the nation. I haven't looked at all the numbers. But we do great things for students who deserve an opportunity. And W.E.B. Du Bois said a long time ago that the most fundamental right is a right to education. And providing opportunities for scholarships for these young people will certainly do that, and help us with our unemployment rate.    I am proud to say that my daughter, my only daughter, is a graduate of North Carolina A&amp;T from the School of Agriculture, and is doing very well in Greensboro. But this is a field that is an important area. And as Congressman Scott has said, it is about everything, agriculture. It is about the clothes we wear. It is about energy, agribusiness, all of those things that we need and depend on.    I don't know if Congressman Mark Walker is still here, one of the members of his staff, who now, as they changed my district, you all may have heard about all of that. But, at any rate, I represented North Carolina A&amp;T and will through the end of this year. I am happy to not only advocate now but to continue to do that. But Congressman Walker has been given that part of the district now, and so I invited him to come. But I just want to say that we too have had some great Congressmen to come through from North Carolina A&amp;T. Former Congressman Jesse Jackson, Jr., Edolphus Towns, and now Alma S. Adams.    And so, Mr. Chairman, I just want to thank these gentlemen and ladies for coming today and for advocating for what I know will be a tremendous benefit to all of our schools and the many students that we seek to serve. I am way off script too.    But anyway, those are the comments of my heart. And I just wanted to thank all of you for being here and just say this is a very important piece of legislation, and we certainly hope that you will join us in supporting that and getting this bill passed.    Thank you very much, Mr. Chairman. I yield back.    The Chairman. The gentlelady yields back.    Austin Scott, 5 minutes.    Mr. Austin Scott of Georgia. Thank you, Mr. Chairman.    I just wanted to take a second to thank my long-time friend and colleague David Scott. We have known each other since 1996. He has been a great advocate on many things that have helped move the country in the right direction.    And any time I think of Fort Valley State, I can't help but think of another friend of ours, Lynmore James, who was a great advocate for Fort Valley, did a tremendous number of things when he was a Member of the State Legislature in Georgia and served with us. I just want to thank you, David, for your work on this, look forward to supporting it, and I look forward to continuing to work with you.    Mr. David Scott of Georgia. Thank you, sir.    The Chairman. The gentleman yields back.    Gwen Graham, 5 minutes.</t>
   </si>
   <si>
     <t>412620</t>
   </si>
   <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Gwen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Graham. Thank you, Mr. Chairman.    And I want to thank my colleague Mr. Scott for including me in this legislation. I am proud to be an original cosponsor as I am ending my term in Congress and leaving Congress. My district was redistricted too, Congresswoman Adams.    There is nothing that I could be prouder than to be able, in some of my last days, to be here advocating on behalf of HBCUs. And I want to recognize Dr. Robinson, who is the interim President of Florida A&amp;M University in Tallahassee, and I am so proud to represent the Rattlers. Strike, strike, strike again. I am still working on the wrist action, still working on it.    The 1890 land-grant universities, they have the important task of recruiting, educating, and ensuring that future generations are excited about, and prepared for, careers in agriculture. This is an immediate need. And I know that we must do all we can to support these wonderful universities in that effort.    This bill would make an education in agriculture more accessible and affordable. And I know in north Florida that what Florida A&amp;M is doing is helping young people get into the field of agriculture, and it is such a critically important area. As the age of those that are in agriculture goes up, we need to encourage young people to get into this wonderful field. Again, I want to thank you. It is such an honor to represent Florida A&amp;M.    And, Mr. Chairman, I yield back.    The Chairman. The gentlelady yields back.    Rick Allen, 5 minutes.</t>
   </si>
   <si>
     <t>412625</t>
   </si>
   <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Allen. Well, I have to tell my David Scott story real quick. But Kevin, all I can tell you is he walks the talk, because I had the opportunity to ride back to Georgia on an airplane and got to sit next to Congressman Scott. And he had his Bible open and, of course, we got into a discussion about his study and our faith journey. And I can't tell you, Congressman, how much I appreciate that opportunity to talk about how we could make a difference. Thank you, and thank you for walking the talk.    Mr. David Scott of Georgia. Thank you very much. I appreciate that.    The Chairman. The gentleman yields back.    Are there others who want to be heard?    I want to thank our first panel for getting us kicked off in a great way.    We will now ask our second panel to join us at the witness table.    The Chairman. I would like to welcome our second panel now to the witness table.    We first have Dr. Juliette Bell, who is President, University of Maryland Eastern Shore, Princess Anne, MD, outgoing chair of the Council of 1890s Executive Committee. We also have with us Dr. Cynthia Jackson-Hammond, who is President, Central State University, Wilberforce, Ohio; and Dr. Paul Jones, President, Fort Valley State University, Fort Valley, Georgia.    I would also again like to welcome the other Presidents and representatives of the other schools. During the question-and-answer period, Members will be able to ask questions not only of the witnesses at the table, but of any of the other guests who represent the 1890s schools.    So, with that, Dr. Bell, the floor is yours for 5 minutes.        STATEMENT OF JULIETTE B. BELL, Ph.D., PRESIDENT,                 OF 1890's EXECUTIVE COMMITTEE,</t>
   </si>
   <si>
+    <t>Bell</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Bell. Thank you very much. And good morning to the House Agriculture Committee. It is my great pleasure to have another opportunity to speak before this august group.    First, I want to thank the Chairman for his support and for providing this opportunity for us to speak before the Committee. And I also want to thank Congressman Scott for his diligence and his undying support, and those who are also cosponsors of this bill. We are very encouraged by your support and we appreciate the opportunity to speak before you this morning.    As was said, my name is Dr. Juliette Bell. I am the President of the University of Maryland Eastern Shore, and the immediate past Chair of the Council of 1890 Universities, and of the USDA/1890 Task Force established by the U.S. Secretary of Agriculture.    My purpose here this morning is to really speak to you about the importance of providing scholarship support that will help our students to achieve their dreams of careers in the agriculture fields.    Let me start by saying, I grew up on a farm in Alabama. I picked cotton and corn and all other kinds of things. And one of my greatest ambitions was to get off the farm, and I was able to do that as a result of being a first-generation college student with support through scholarship. I find it in some ways ironic and in some ways divine providence that I am now leading a school that is a land-grant agriculture-based institution, because many of my students have similar backgrounds to myself. They are first generation, economically disadvantaged students.    The advantage that I see for my current students is that the agricultural field has evolved greatly, and there are many opportunities for our students to explore the use of technology and to learn what modern agriculture really is all about. We want to be able to increasingly provide that opportunity to more students of African American descent and help them to be a part of the American Dream.    As I mentioned, we serve a very diverse student population. Many of my students, about 50 percent are first-generation college students; and about 70 percent of my students are Pell-eligible, meaning they are also economically disadvantaged. And, on top of that, about 90 percent of my students depend on some form of financial aid.    When students in that situation are faced with whether they can afford to come back to school, whether they are academically prepared or not, oftentimes they are forced to withdraw and as a result of that withdrawal, they lose the opportunity to achieve their dreams. This bill will provide the university, in particular my university, and the other 18 1890 institutions an opportunity to provide some financial support to those students who are academically well-prepared, but just not economically prepared to sustain their educational experience.    We know that the workforce is underrepresented in terms of African Americans in agriculture. We also know that the workforce is graying, especially in agriculture. I believe I heard that the average age for farmers now is 60+ years, and among African Americans that number is proposed to be much higher. We also know that it is important that students know that agriculture is a career that they can pursue and that there are jobs.    A report that I cited in my testimony indicates that ten percent of the economy is driven by agriculture, but the number of jobs that are being filled is much less, and the diversity of those jobs is even less.    So this bill will provide our universities, which are often not able through endowments and private funding, to be able to provide that level of support to these very deserving students, not just to help them get a degree, but to address the workforce needs and the economic development of our regions, and of our country.    So, again, I ask for your support. I thank you for this opportunity, and I will be happy to answer any questions.</t>
   </si>
   <si>
+    <t>Jackson-Hammond</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Jackson-Hammond. Thank you, Mr. Chairman, and thank you, Committee, for allowing me to be here to talk about some of the issues that are associated with Central State University and other 1890 universities.    I must try to restrain myself because, as a college President, the first thing you want to do is tell the wonderful things about your university. I don't have much restraint. Let me begin by telling you a little bit about Central State University.    Central State University is the only 1890 public land-grant university. We are also partners with an 1860, a little school in Columbus called the Ohio State University. Our partnership with them is very, very critical to making sure that we are meeting the needs of the people of the entire State of Ohio.    We are the last of the 1890 institutions, receiving the designation February 13, 2014. And that was really a charge that came out of the farm bill and supported so fervently by so many people. And we certainly do want to recognize Congresslady Marcia L. Fudge, who we have adopted as a Centralian, and we thank her for all of her efforts in that regard.    We do have wonderful alums who have come from Central State University, and the list goes on. But one that you might know quite easily is Congresslady Joyce Beatty, who is a soft-spoken, demure Congresslady who has done a tremendous amount of work here in support of land-grant institutions. She is one of our stellar alums.    You've heard President Bell talk about the needs of our students. And I want to make sure that we are very clear in understanding that the students who attend 1890 universities are very academically gifted students. We have the same sort of expectations, the same requirements, the same performance outcomes as any 1860 university. We expect for our students to perform. We expect for them to be contributors to society. We expect for them to get in, get out, get a job and contribute to the State of Ohio.    We are very, very happy to know that we have a supportive governor, Governor John Kasich, who supports Central State; Representative Jim Buchy from Ohio, who is also a very supportive person for Central State's 1890 land-grant initiatives. On our staff, we have retired Senator Chris Widener from Ohio, who is also a proponent of support for Central State University.    Our main focus as an 1890 university is to address some of the common issues that plague so many of our Ohio residents: Health issues, nutrition, obesity, high blood pressure, all of those issues that really can be ameliorated through a very, very sound agriculture program. What do you eat? What do you do with the food that you ingest? We are really proud to have a research component and an extension component that reaches out to ten counties, along with the Ohio State University, to try to solve those issues.    This particular legislation, H.R. 6020, will allow students, and not just African American students, but a vast amount of all students who wish to seek this kind of educational experience, to be contributing citizens of the State of Ohio. It is important that we begin very early in training and preparing students to understand their worth and value added to the state. In support of H.R. 6020, we need this sort of legislation to help keep students in school.    Basically, you cannot get a job at USDA or improve the economy if you are not well-educated. H.R. 6020 allows us to provide those opportunities. Too many of our students stop out, not because of academic reasons but because of financial reasons. And this is a burden on the families and on the students. And in order to make sure that we are meeting the state performance for students being able to contribute, they have to be able to get into school, complete their course of study within 4 or 4\\1/2\\ years.    Now, if you are a STEM-Ag major, it is going to take you a little bit longer because of the increased number of science courses that are associated with those fields. They need some additional help. Our students who are in our STEM-Ag programs, they get employment opportunities before they graduate. Water resource management, agribusiness, sustainable ag, ag education. It is important that we keep those students in school and try to increase the number of students who are going into those fields.    Students make the decision about what field they want to go into based on what they can afford. And it should not be that. It should not be that rationale. It should be what can we do to contribute to the state and to the nation. By 2020, USDA has said that they will have over 60,000 job availabilities. We need to be in a position to fill those jobs.    We ask for your support for H.R. 6020, and we know that we will make a difference because of its passage. Thank you very much.</t>
   </si>
   <si>
+    <t>Jones</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Jones. Chairman Conaway, Ranking Member Peterson, and Members of the House Committee on Agriculture, my name is Paul Jones and I am privileged to serve as the 10th President and probably the newest President of the 1890 Fort Valley State University, which is located in the heart of middle Georgia.    I am honored to be here today, along with several of my colleagues, to testify for your support, support of scholarships for young men and women who aspire to serve our nation pursuing careers in the agricultural and related fields.    This bill is designed to address the urgent need to train and educate students to fill crucial jobs in our country. USDA estimates, as Dr. Jackson-Hammond said, nearly 60,000 jobs will be available in these related fields, and yet they only anticipate our ability to meet the needs of about 30,000. There is a significant gap.    With the resources from this scholarship support, we believe, as 1890 institutions, that not only do we have the potential, but we have the capacity to address this urgent concern. The National Center on Educational Statistics data shows the power and potential of HBCUs. The data reveals that while HBCUs constitute three percent of postsecondary institutions, they are home to approximately eight percent of African Americans enrolled in colleges and universities during the period of 2012 to 2014. And NCES predicts that African American enrollment in higher education will increase through 2025.    The characteristics in the same USDA report reflects that the percentage of ethnic minority students in agriculture, life sciences, veterinary medicine will continue that increase. And 1890 land-grant institutions have played a major role in fueling this continued increase. We are proud at Fort Valley State University in that we have the distinction of ranking number six in awarding the number of agricultural degrees earned by African Americans. And this funding is important as HBCUs look to actively recruit and embrace a more diverse student body.    There is a popular misperception about HBCUs and 1890 land-grant institutions, and that is that we are not diverse. As a matter of fact, HBCUs and 1890s are very diverse, diverse in terms of race, ethnicity, political backgrounds, nationality, you name it. And issues of affordability and the strength of, I believe, our academic programs have been major factors in ushering this diversity, this welcome diversity that we are seeing on our campuses.    The notoriety of signature academic research that we do, at Fort Valley State we are very proud of the cutting-edge research that we are doing; and we do that even partnering with many of our other land-grant institutions, both 1890 and 1860 institutions. The fact that our biotechnology and plant science graduates routinely are accepted in Ph.D. programs across the country is a testimony to the quality. And I believe that quality is something that we all share together. It is often another misconception that to choose our campuses is to sacrifice in terms of quality.    I have attended two land-grant institutions in my career, and I will say that our land-grant institution, and the other 1890s, equally have the same quality. And we are under the same accreditation as our peer institutions. And so we don't apologize for what we do.    But your support of this legislation I believe is very important, important not only to us but the history--or the future of this country in our number one industry.    I thank you for allowing me a few minutes to testify before you. I thank you for your support, your bipartisan support, and we look forward to your conversation. Thank you.</t>
   </si>
   <si>
@@ -139,6 +190,12 @@
     <t>400220</t>
   </si>
   <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman. I appreciate being recognized and I appreciate the testimony of the witnesses.    I want to start out and say I am completely convinced all of your hearts are right. And we will make that point first, but then I want to put a little piece of history in. We always have to do that for our own locale and point out that the Iowa Legislature was the first state legislature to accept the provisions of the original Morrill Act. They did that on September 11, 1862. And they would have been the first designation of a state agriculture college had it not been for K-State, bumped us on the third turn and slipped in ahead of us.    So we pay attention to land-grant colleges and know what it means to have the resources. I would prefer that they were based on the land, especially when you are focused on agriculture, rather than on the cash that came with the 1890 version. However, that is where we are today and land is a lot harder to come by, so I don't see any reason to try to change that. It is just, I notice the distinction.    And I wanted to point out also that listening to the spirit of this discussion here, that the inner cities in America are a disaster. Anything that we look at from the data out of the inner cities, especially young men, especially young African American men, it is a resource to this country that we have just not figured out how to mobilize. We haven't figured out how to lift them up and get them into the flow.    And I say that because the next statement I want to make is, and I would sense this from Dr. Bell in particular, but the rest of you, the very best place in the world to raise a family is on a family farm. And if we are going to do good things to help our society to go in the right direction, then for me, if we can get people going to the farm and raising their families there, they learn about the whole spectrum of life, the cycles of life of livestock from birth to death, to, we call it now harvest rather than that other word that seems to be abhorrent to people in the inner city, and it is what I grew up all around and had to wash it off my hands afterwards. But, all new wealth comes from the land. And we can trace every dollar right back to that soil.    So this is inspiring to me in these ways. But I am getting to a but. And it is this, that I have a deep conviction and strong support for Ward Connerly's Proposition 209 in California. I have invested a significant amount of my legislative time in that and succeeded to a degree, in fact, in conflict with the current Secretary of Agriculture, Secretary Vilsack. But I would point out for this Committee what that proposition is, and we haven't had discussions in a long time on that. And it says this: The state, meaning the State of California, that was a constitutional amendment, the state shall not discriminate against or grant preferential treatment to any individual or group on the basis of race, sex, color, ethnicity, or national origin in the operation of public employment, public education, or public contracting.    Now, that language of race, sex, color, ethnicity, or national origin is lifted exactly out of Title VII of the Civil Rights Act, and I support it 100 percent. It is the right thing. It is the right thing for us to pour forth all resources and all constitutional focus and all statutory focus to provide equal opportunity.    And so my question, and I would start first with Dr. Bell, is this an equal opportunity bill before us or is it a preferential treatment bill before us?</t>
   </si>
   <si>
@@ -208,6 +265,12 @@
     <t>412463</t>
   </si>
   <si>
+    <t>Gibbs</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gibbs. Thank you, Mr. Chairman.    Talk about a little bit, Dr. Jackson-Hammond is from Ohio, Central State, and they are doing a great job down there. And they started a new ag education program that is much needed, and she mentioned in her testimony about the job placement and how these are the next generation of young men and women that are getting jobs right off the bat, so the need is there, and also the program they are doing with water and it is a huge issue in Ohio with Lake Erie and some other areas in the state with some challenges.    But something I want to maybe reemphasize, it is really important, Central State is the last 1890 land-grant, and they just became that, I don't know, 3 or 4 years ago?</t>
   </si>
   <si>
@@ -238,6 +301,12 @@
     <t>412659</t>
   </si>
   <si>
+    <t>Plaskett</t>
+  </si>
+  <si>
+    <t>Stacey</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Plaskett. Thank you, sir, and thank you so much for the dedication and all of the work that you give young people all over this country. I have a son who is presently at the University of Arkansas in Pine Bluff where he is doing a fantastic job and really loves his experience there. He is the third generation to go to that institution, and the students are stellar from that institution and from so many of your own.    One of the things that I was interested in finding out was, Dr. Jones, in your testimony, your written testimony, you discuss that there is a 28 percent increase in agricultural degree program enrollment at Fort Valley State between 2014 and 2015. Can you explain what is the cause of that increase? And do you sense that there are more young people being drawn to the agricultural careers or is there another reason why this may be happening?</t>
   </si>
   <si>
@@ -280,6 +349,9 @@
     <t xml:space="preserve">    Ms. Graham. Thank you, Doctor.    Mr. Chairman, I think Dr. Robinson would like to say a couple of words from FAMU, I would appreciate that opportunity. Thank you.    The Chairman. Be brief. We are trying to get everybody in, so be brief. RESPONSE OF LARRY ROBINSON, Ph.D., INTERIM PRESIDENT, FLORIDA </t>
   </si>
   <si>
+    <t>Robinson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Robinson. Thank you, Representative Graham, for what you have done on behalf of north Florida, and in particular Florida A&amp;M University. And thank you very, very much for the novel concept of the road tour so we can tell more people in north Florida about what we do at Florida A&amp;M University for small, large, medium farmers around the state. We are a land-grant institution and we have a statewide impact.    I guess one key point I want to make, and that is the economic impact that we have in the State of Florida. Just as an example, Florida A&amp;M University has a Center for Viticulture. That center has led to the development of nearly 20 viticulture operations around the State of Florida. Of course, we specialize in the type of wine that doesn't grow everywhere else because of the climate in Florida. But the economic impact of the research done by Florida A&amp;M University doesn't directly benefit us because we are prohibited from benefiting from it financially. But we have developed at least 20 wineries around the State of Florida that are making jobs available for citizens, not only up in the Panhandle, but throughout the state. And in fact, it expanded throughout the South in general.    There are vineyards and wineries in South Carolina, and our neighbors, Representative Scott up in Georgia, who are benefiting from the research done at Florida A&amp;M University. I just want to emphasize the economic impact of these institutions in the 1890 community on the cities and towns in which we reside. Thank you.</t>
   </si>
   <si>
@@ -289,6 +361,12 @@
     <t>412436</t>
   </si>
   <si>
+    <t>Benishek</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Benishek. Thank you, Mr. Chairman. I thank you all for being here this morning.    I just want to make it clear about this bill, is there a preference in the legislation for students from a certain area or background or is every student on a level playing field in regard to these scholarships? Anyone?</t>
   </si>
   <si>
@@ -362,6 +440,12 @@
   </si>
   <si>
     <t>412536</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Rodney</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Davis. Thank you to the panel and thank you, Mr. Chairman.    I too, Dr. Jones, had questions about veterans. And if you have anything to add in regards to how your programs or how H.R. 6020 would help recruit veterans, I mean, you are more than welcome to expand on your first answer, if you would.</t>
@@ -782,7 +866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,7 +874,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,2861 +896,3329 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
       <c r="H11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G25" t="s">
+        <v>58</v>
+      </c>
       <c r="H25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
       <c r="H27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G29" t="s">
+        <v>58</v>
+      </c>
       <c r="H29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G31" t="s">
+        <v>58</v>
+      </c>
       <c r="H31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G33" t="s">
+        <v>58</v>
+      </c>
       <c r="H33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G35" t="s">
+        <v>58</v>
+      </c>
       <c r="H35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G36" t="s">
+        <v>30</v>
+      </c>
       <c r="H36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G38" t="s">
+        <v>30</v>
+      </c>
       <c r="H38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G40" t="s">
+        <v>30</v>
+      </c>
       <c r="H40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G42" t="s">
+        <v>30</v>
+      </c>
       <c r="H42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G46" t="s">
+        <v>30</v>
+      </c>
       <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G47" t="s">
+        <v>83</v>
+      </c>
       <c r="H47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G49" t="s">
+        <v>83</v>
+      </c>
       <c r="H49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>43</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G51" t="s">
+        <v>83</v>
+      </c>
       <c r="H51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G53" t="s">
+        <v>83</v>
+      </c>
       <c r="H53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>43</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G55" t="s">
+        <v>83</v>
+      </c>
       <c r="H55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G56" t="s">
+        <v>95</v>
+      </c>
       <c r="H56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>73</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G58" t="s">
+        <v>95</v>
+      </c>
       <c r="H58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>73</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G60" t="s">
+        <v>95</v>
+      </c>
       <c r="H60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>73</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G62" t="s">
+        <v>95</v>
+      </c>
       <c r="H62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>73</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G64" t="s">
+        <v>95</v>
+      </c>
       <c r="H64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G67" t="s">
+        <v>34</v>
+      </c>
       <c r="H67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>43</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G69" t="s">
+        <v>34</v>
+      </c>
       <c r="H69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>111</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G71" t="s">
+        <v>34</v>
+      </c>
       <c r="H71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>90</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G72" t="s">
+        <v>115</v>
+      </c>
       <c r="H72" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I72" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>41</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>90</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G74" t="s">
+        <v>115</v>
+      </c>
       <c r="H74" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I74" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>41</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G76" t="s">
+        <v>115</v>
+      </c>
       <c r="H76" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>41</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>90</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G78" t="s">
+        <v>115</v>
+      </c>
       <c r="H78" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I78" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>43</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>90</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G81" t="s">
+        <v>115</v>
+      </c>
       <c r="H81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I81" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>43</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>90</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G83" t="s">
+        <v>115</v>
+      </c>
       <c r="H83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I83" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>43</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>90</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G85" t="s">
+        <v>115</v>
+      </c>
       <c r="H85" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I85" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>90</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G87" t="s">
+        <v>115</v>
+      </c>
       <c r="H87" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I87" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>90</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G89" t="s">
+        <v>115</v>
+      </c>
       <c r="H89" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I89" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>43</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>41</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>90</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G94" t="s">
+        <v>115</v>
+      </c>
       <c r="H94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I94" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>41</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>90</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G96" t="s">
+        <v>115</v>
+      </c>
       <c r="H96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I96" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>115</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G97" t="s">
+        <v>142</v>
+      </c>
       <c r="H97" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>115</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G99" t="s">
+        <v>142</v>
+      </c>
       <c r="H99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I99" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>115</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G101" t="s">
+        <v>142</v>
+      </c>
       <c r="H101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I101" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>115</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G103" t="s">
+        <v>142</v>
+      </c>
       <c r="H103" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I103" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>41</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>115</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G105" t="s">
+        <v>142</v>
+      </c>
       <c r="H105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I105" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>41</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>115</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G107" t="s">
+        <v>142</v>
+      </c>
       <c r="H107" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I107" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>41</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>115</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G109" t="s">
+        <v>142</v>
+      </c>
       <c r="H109" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I109" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>111</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>115</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G111" t="s">
+        <v>142</v>
+      </c>
       <c r="H111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>25</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G112" t="s">
+        <v>38</v>
+      </c>
       <c r="H112" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I112" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>45</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>25</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G114" t="s">
+        <v>38</v>
+      </c>
       <c r="H114" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I114" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>43</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G116" t="s">
+        <v>38</v>
+      </c>
       <c r="H116" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I116" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>41</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>25</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G118" t="s">
+        <v>38</v>
+      </c>
       <c r="H118" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I118" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>41</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>25</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G120" t="s">
+        <v>38</v>
+      </c>
       <c r="H120" t="s">
-        <v>139</v>
+        <v>39</v>
+      </c>
+      <c r="I120" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22979.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22979.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>400316</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Peterson</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
   </si>
   <si>
     <t>412642</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Ashford</t>
@@ -866,7 +875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -874,7 +883,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,3326 +908,3556 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G25" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="H25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="H27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I27" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="H31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G33" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="H33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>41</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s">
-        <v>45</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>41</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>43</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" t="s">
-        <v>45</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>48</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="H47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I47" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>43</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="H49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I49" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>43</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="H51" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>43</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="H53" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I53" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>43</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G55" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="H55" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G56" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="H56" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" t="s">
-        <v>45</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>48</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G58" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="H58" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I58" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" t="s">
-        <v>45</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>48</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G60" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="H60" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
-        <v>45</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G62" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="H62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" t="s">
-        <v>43</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G64" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="H64" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I64" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s">
-        <v>45</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>48</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s">
-        <v>45</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>48</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H67" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I67" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" t="s">
-        <v>43</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H69" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I69" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
-        <v>111</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>114</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H71" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I71" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J71" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G72" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="H72" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I72" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" t="s">
-        <v>41</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G74" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="H74" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I74" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" t="s">
-        <v>41</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>44</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G76" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="H76" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I76" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J76" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" t="s">
-        <v>41</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>44</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G78" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="H78" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I78" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J78" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" t="s">
-        <v>41</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>44</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" t="s">
-        <v>43</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G81" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="H81" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I81" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" t="s">
-        <v>43</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G83" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="H83" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I83" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>43</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G85" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="H85" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I85" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J85" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>45</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>48</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G87" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="H87" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I87" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" t="s">
-        <v>45</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>48</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G89" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="H89" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I89" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J89" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" t="s">
-        <v>45</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>48</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s">
-        <v>43</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>45</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>48</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" t="s">
-        <v>41</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>44</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G94" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I94" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J94" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" t="s">
-        <v>41</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>44</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G96" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="H96" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I96" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J96" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G97" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="H97" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I97" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J97" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" t="s">
-        <v>45</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>48</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G99" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="H99" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I99" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="J99" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" t="s">
-        <v>45</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>48</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G101" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="H101" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I101" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J101" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s">
-        <v>45</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>48</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G103" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="H103" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I103" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J103" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" t="s">
-        <v>41</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>44</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G105" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="H105" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I105" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J105" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="s">
-        <v>41</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>44</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G107" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="H107" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I107" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J107" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="s">
-        <v>41</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>44</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G109" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="H109" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I109" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J109" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" t="s">
-        <v>111</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>114</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G111" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="H111" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I111" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J111" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H112" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I112" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J112" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" t="s">
-        <v>45</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>48</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H114" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I114" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J114" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" t="s">
-        <v>43</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>46</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H116" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I116" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J116" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" t="s">
-        <v>41</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>44</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H118" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I118" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J118" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" t="s">
-        <v>41</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>44</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H120" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I120" t="s">
-        <v>167</v>
+        <v>42</v>
+      </c>
+      <c r="J120" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
